--- a/EnvioTexCargoPlanillav1.xlsx
+++ b/EnvioTexCargoPlanillav1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Equipo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Equipo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7320"/>
   </bookViews>
   <sheets>
     <sheet name="PlanilladeCargaTexcargo" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2509" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2509" uniqueCount="110">
   <si>
     <t>PLANILLA DE CARGA</t>
   </si>
@@ -257,9 +257,6 @@
     <t>CURACAVI</t>
   </si>
   <si>
-    <t xml:space="preserve">Por pagar </t>
-  </si>
-  <si>
     <t>Pagado</t>
   </si>
   <si>
@@ -356,6 +353,18 @@
   </si>
   <si>
     <t>PESO KG</t>
+  </si>
+  <si>
+    <t>MOSTAZAL</t>
+  </si>
+  <si>
+    <t>Por pagar</t>
+  </si>
+  <si>
+    <t>MediumTicket Hasta 7 kg</t>
+  </si>
+  <si>
+    <t>MaxiTicket de 8 kg Hasta 25 Kg</t>
   </si>
 </sst>
 </file>
@@ -700,7 +709,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -793,6 +802,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1010,8 +1020,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:A68" totalsRowShown="0">
   <autoFilter ref="A1:A68"/>
-  <sortState ref="A2:A67">
-    <sortCondition ref="A1:A67"/>
+  <sortState ref="A2:A68">
+    <sortCondition ref="A1:A68"/>
   </sortState>
   <tableColumns count="1">
     <tableColumn id="1" name="Comunas"/>
@@ -1334,7 +1344,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BX86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1378,21 +1390,21 @@
     <row r="1" spans="1:76" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="33"/>
       <c r="H1" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I1" s="27"/>
       <c r="J1" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U1" s="21"/>
       <c r="V1" s="21"/>
@@ -1445,7 +1457,7 @@
         <v>42</v>
       </c>
       <c r="AT1" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU1" s="41" t="s">
         <v>29</v>
@@ -1460,7 +1472,7 @@
         <v>38</v>
       </c>
       <c r="AY1" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ1" s="41" t="s">
         <v>31</v>
@@ -1509,17 +1521,17 @@
       </c>
       <c r="BO1" s="41"/>
       <c r="BP1" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ1" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ1" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR1" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS1" s="41"/>
       <c r="BT1" s="47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU1" s="41" t="str">
         <f>IF(F7=BT1,SUM(H7),"")</f>
@@ -1538,23 +1550,23 @@
     <row r="2" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
       <c r="G2" s="33"/>
       <c r="H2" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I2" s="29"/>
       <c r="J2" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V2" s="21"/>
       <c r="W2" s="21"/>
@@ -1606,7 +1618,7 @@
         <v>42</v>
       </c>
       <c r="AT2" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU2" s="41" t="s">
         <v>29</v>
@@ -1621,7 +1633,7 @@
         <v>38</v>
       </c>
       <c r="AY2" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ2" s="41" t="s">
         <v>31</v>
@@ -1670,17 +1682,17 @@
       </c>
       <c r="BO2" s="41"/>
       <c r="BP2" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ2" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ2" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR2" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS2" s="41"/>
       <c r="BT2" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU2" s="41" t="str">
         <f t="shared" ref="BU2:BU60" si="0">IF(F8=BT2,SUM(H8),"")</f>
@@ -1698,26 +1710,26 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="F3" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="G3" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="52" t="s">
-        <v>106</v>
-      </c>
       <c r="H3" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I3" s="37">
         <f>BV1</f>
         <v>0</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V3" s="11"/>
       <c r="W3" s="21"/>
@@ -1776,7 +1788,7 @@
         <v>42</v>
       </c>
       <c r="AT3" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU3" s="41" t="s">
         <v>29</v>
@@ -1791,7 +1803,7 @@
         <v>38</v>
       </c>
       <c r="AY3" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ3" s="41" t="s">
         <v>31</v>
@@ -1840,17 +1852,17 @@
       </c>
       <c r="BO3" s="41"/>
       <c r="BP3" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ3" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ3" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR3" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS3" s="41"/>
       <c r="BT3" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU3" s="41" t="str">
         <f t="shared" si="0"/>
@@ -1879,7 +1891,7 @@
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
       <c r="J4" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
@@ -1938,7 +1950,7 @@
         <v>42</v>
       </c>
       <c r="AT4" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU4" s="41" t="s">
         <v>29</v>
@@ -1953,7 +1965,7 @@
         <v>38</v>
       </c>
       <c r="AY4" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ4" s="41" t="s">
         <v>31</v>
@@ -2002,17 +2014,17 @@
       </c>
       <c r="BO4" s="41"/>
       <c r="BP4" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ4" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ4" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR4" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS4" s="41"/>
       <c r="BT4" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU4" s="41" t="str">
         <f t="shared" si="0"/>
@@ -2028,15 +2040,15 @@
     <row r="5" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="25"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="57"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="58"/>
       <c r="H5" s="1"/>
       <c r="I5" s="2"/>
       <c r="J5" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
@@ -2095,7 +2107,7 @@
         <v>42</v>
       </c>
       <c r="AT5" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU5" s="41" t="s">
         <v>29</v>
@@ -2110,7 +2122,7 @@
         <v>38</v>
       </c>
       <c r="AY5" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ5" s="41" t="s">
         <v>31</v>
@@ -2159,17 +2171,17 @@
       </c>
       <c r="BO5" s="41"/>
       <c r="BP5" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ5" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ5" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR5" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS5" s="41"/>
       <c r="BT5" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU5" s="41" t="str">
         <f t="shared" si="0"/>
@@ -2202,7 +2214,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>7</v>
@@ -2211,7 +2223,7 @@
         <v>8</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K6" s="10"/>
       <c r="V6" s="11"/>
@@ -2271,7 +2283,7 @@
         <v>42</v>
       </c>
       <c r="AT6" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU6" s="41" t="s">
         <v>29</v>
@@ -2286,7 +2298,7 @@
         <v>38</v>
       </c>
       <c r="AY6" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ6" s="41" t="s">
         <v>31</v>
@@ -2335,17 +2347,17 @@
       </c>
       <c r="BO6" s="41"/>
       <c r="BP6" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ6" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ6" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR6" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS6" s="41"/>
       <c r="BT6" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU6" s="41" t="str">
         <f t="shared" si="0"/>
@@ -2433,7 +2445,7 @@
         <v>42</v>
       </c>
       <c r="AT7" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU7" s="41" t="s">
         <v>29</v>
@@ -2448,7 +2460,7 @@
         <v>38</v>
       </c>
       <c r="AY7" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ7" s="41" t="s">
         <v>31</v>
@@ -2497,17 +2509,17 @@
       </c>
       <c r="BO7" s="41"/>
       <c r="BP7" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ7" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ7" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR7" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS7" s="41"/>
       <c r="BT7" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU7" s="41" t="str">
         <f t="shared" si="0"/>
@@ -2594,7 +2606,7 @@
         <v>42</v>
       </c>
       <c r="AT8" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU8" s="41" t="s">
         <v>29</v>
@@ -2609,7 +2621,7 @@
         <v>38</v>
       </c>
       <c r="AY8" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ8" s="41" t="s">
         <v>31</v>
@@ -2658,17 +2670,17 @@
       </c>
       <c r="BO8" s="41"/>
       <c r="BP8" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ8" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ8" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR8" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS8" s="41"/>
       <c r="BT8" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU8" s="41" t="str">
         <f t="shared" si="0"/>
@@ -2755,7 +2767,7 @@
         <v>42</v>
       </c>
       <c r="AT9" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU9" s="41" t="s">
         <v>29</v>
@@ -2770,7 +2782,7 @@
         <v>38</v>
       </c>
       <c r="AY9" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ9" s="41" t="s">
         <v>31</v>
@@ -2819,17 +2831,17 @@
       </c>
       <c r="BO9" s="41"/>
       <c r="BP9" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ9" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ9" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR9" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS9" s="41"/>
       <c r="BT9" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU9" s="41" t="str">
         <f t="shared" si="0"/>
@@ -2916,7 +2928,7 @@
         <v>42</v>
       </c>
       <c r="AT10" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU10" s="41" t="s">
         <v>29</v>
@@ -2931,7 +2943,7 @@
         <v>38</v>
       </c>
       <c r="AY10" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ10" s="41" t="s">
         <v>31</v>
@@ -2980,17 +2992,17 @@
       </c>
       <c r="BO10" s="41"/>
       <c r="BP10" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ10" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ10" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR10" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS10" s="41"/>
       <c r="BT10" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU10" s="41" t="str">
         <f t="shared" si="0"/>
@@ -3077,7 +3089,7 @@
         <v>42</v>
       </c>
       <c r="AT11" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU11" s="41" t="s">
         <v>29</v>
@@ -3092,7 +3104,7 @@
         <v>38</v>
       </c>
       <c r="AY11" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ11" s="41" t="s">
         <v>31</v>
@@ -3141,17 +3153,17 @@
       </c>
       <c r="BO11" s="41"/>
       <c r="BP11" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ11" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ11" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR11" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS11" s="41"/>
       <c r="BT11" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU11" s="41" t="str">
         <f t="shared" si="0"/>
@@ -3238,7 +3250,7 @@
         <v>42</v>
       </c>
       <c r="AT12" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU12" s="41" t="s">
         <v>29</v>
@@ -3253,7 +3265,7 @@
         <v>38</v>
       </c>
       <c r="AY12" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ12" s="41" t="s">
         <v>31</v>
@@ -3302,17 +3314,17 @@
       </c>
       <c r="BO12" s="41"/>
       <c r="BP12" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ12" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ12" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR12" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS12" s="41"/>
       <c r="BT12" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU12" s="41" t="str">
         <f t="shared" si="0"/>
@@ -3399,7 +3411,7 @@
         <v>42</v>
       </c>
       <c r="AT13" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU13" s="41" t="s">
         <v>29</v>
@@ -3414,7 +3426,7 @@
         <v>38</v>
       </c>
       <c r="AY13" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ13" s="41" t="s">
         <v>31</v>
@@ -3463,17 +3475,17 @@
       </c>
       <c r="BO13" s="41"/>
       <c r="BP13" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ13" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ13" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR13" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS13" s="41"/>
       <c r="BT13" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU13" s="41" t="str">
         <f t="shared" si="0"/>
@@ -3560,7 +3572,7 @@
         <v>42</v>
       </c>
       <c r="AT14" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU14" s="41" t="s">
         <v>29</v>
@@ -3575,7 +3587,7 @@
         <v>38</v>
       </c>
       <c r="AY14" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ14" s="41" t="s">
         <v>31</v>
@@ -3624,17 +3636,17 @@
       </c>
       <c r="BO14" s="41"/>
       <c r="BP14" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ14" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ14" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR14" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS14" s="41"/>
       <c r="BT14" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU14" s="41" t="str">
         <f t="shared" si="0"/>
@@ -3721,7 +3733,7 @@
         <v>42</v>
       </c>
       <c r="AT15" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU15" s="41" t="s">
         <v>29</v>
@@ -3736,7 +3748,7 @@
         <v>38</v>
       </c>
       <c r="AY15" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ15" s="41" t="s">
         <v>31</v>
@@ -3785,17 +3797,17 @@
       </c>
       <c r="BO15" s="41"/>
       <c r="BP15" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ15" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ15" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR15" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS15" s="41"/>
       <c r="BT15" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU15" s="41" t="str">
         <f t="shared" si="0"/>
@@ -3882,7 +3894,7 @@
         <v>42</v>
       </c>
       <c r="AT16" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU16" s="41" t="s">
         <v>29</v>
@@ -3897,7 +3909,7 @@
         <v>38</v>
       </c>
       <c r="AY16" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ16" s="41" t="s">
         <v>31</v>
@@ -3946,17 +3958,17 @@
       </c>
       <c r="BO16" s="41"/>
       <c r="BP16" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ16" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ16" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR16" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS16" s="41"/>
       <c r="BT16" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU16" s="41" t="str">
         <f t="shared" si="0"/>
@@ -4043,7 +4055,7 @@
         <v>42</v>
       </c>
       <c r="AT17" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU17" s="41" t="s">
         <v>29</v>
@@ -4058,7 +4070,7 @@
         <v>38</v>
       </c>
       <c r="AY17" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ17" s="41" t="s">
         <v>31</v>
@@ -4107,17 +4119,17 @@
       </c>
       <c r="BO17" s="41"/>
       <c r="BP17" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ17" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ17" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR17" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS17" s="41"/>
       <c r="BT17" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU17" s="41" t="str">
         <f t="shared" si="0"/>
@@ -4204,7 +4216,7 @@
         <v>42</v>
       </c>
       <c r="AT18" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU18" s="41" t="s">
         <v>29</v>
@@ -4219,7 +4231,7 @@
         <v>38</v>
       </c>
       <c r="AY18" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ18" s="41" t="s">
         <v>31</v>
@@ -4268,17 +4280,17 @@
       </c>
       <c r="BO18" s="41"/>
       <c r="BP18" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ18" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ18" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR18" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS18" s="41"/>
       <c r="BT18" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU18" s="41" t="str">
         <f t="shared" si="0"/>
@@ -4365,7 +4377,7 @@
         <v>42</v>
       </c>
       <c r="AT19" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU19" s="41" t="s">
         <v>29</v>
@@ -4380,7 +4392,7 @@
         <v>38</v>
       </c>
       <c r="AY19" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ19" s="41" t="s">
         <v>31</v>
@@ -4429,17 +4441,17 @@
       </c>
       <c r="BO19" s="41"/>
       <c r="BP19" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ19" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ19" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR19" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS19" s="41"/>
       <c r="BT19" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU19" s="41" t="str">
         <f t="shared" si="0"/>
@@ -4526,7 +4538,7 @@
         <v>42</v>
       </c>
       <c r="AT20" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU20" s="41" t="s">
         <v>29</v>
@@ -4541,7 +4553,7 @@
         <v>38</v>
       </c>
       <c r="AY20" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ20" s="41" t="s">
         <v>31</v>
@@ -4590,17 +4602,17 @@
       </c>
       <c r="BO20" s="41"/>
       <c r="BP20" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ20" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ20" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR20" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS20" s="41"/>
       <c r="BT20" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU20" s="41" t="str">
         <f t="shared" si="0"/>
@@ -4687,7 +4699,7 @@
         <v>42</v>
       </c>
       <c r="AT21" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU21" s="41" t="s">
         <v>29</v>
@@ -4702,7 +4714,7 @@
         <v>38</v>
       </c>
       <c r="AY21" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ21" s="41" t="s">
         <v>31</v>
@@ -4751,17 +4763,17 @@
       </c>
       <c r="BO21" s="41"/>
       <c r="BP21" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ21" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ21" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR21" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS21" s="41"/>
       <c r="BT21" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU21" s="41" t="str">
         <f t="shared" si="0"/>
@@ -4848,7 +4860,7 @@
         <v>42</v>
       </c>
       <c r="AT22" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU22" s="41" t="s">
         <v>29</v>
@@ -4863,7 +4875,7 @@
         <v>38</v>
       </c>
       <c r="AY22" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ22" s="41" t="s">
         <v>31</v>
@@ -4912,17 +4924,17 @@
       </c>
       <c r="BO22" s="41"/>
       <c r="BP22" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ22" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ22" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR22" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS22" s="41"/>
       <c r="BT22" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU22" s="41" t="str">
         <f t="shared" si="0"/>
@@ -5009,7 +5021,7 @@
         <v>42</v>
       </c>
       <c r="AT23" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU23" s="41" t="s">
         <v>29</v>
@@ -5024,7 +5036,7 @@
         <v>38</v>
       </c>
       <c r="AY23" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ23" s="41" t="s">
         <v>31</v>
@@ -5073,17 +5085,17 @@
       </c>
       <c r="BO23" s="41"/>
       <c r="BP23" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ23" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ23" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR23" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS23" s="41"/>
       <c r="BT23" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU23" s="41" t="str">
         <f t="shared" si="0"/>
@@ -5170,7 +5182,7 @@
         <v>42</v>
       </c>
       <c r="AT24" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU24" s="41" t="s">
         <v>29</v>
@@ -5185,7 +5197,7 @@
         <v>38</v>
       </c>
       <c r="AY24" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ24" s="41" t="s">
         <v>31</v>
@@ -5234,17 +5246,17 @@
       </c>
       <c r="BO24" s="41"/>
       <c r="BP24" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ24" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ24" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR24" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS24" s="41"/>
       <c r="BT24" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU24" s="41" t="str">
         <f t="shared" si="0"/>
@@ -5331,7 +5343,7 @@
         <v>42</v>
       </c>
       <c r="AT25" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU25" s="41" t="s">
         <v>29</v>
@@ -5346,7 +5358,7 @@
         <v>38</v>
       </c>
       <c r="AY25" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ25" s="41" t="s">
         <v>31</v>
@@ -5395,17 +5407,17 @@
       </c>
       <c r="BO25" s="41"/>
       <c r="BP25" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ25" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ25" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR25" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS25" s="41"/>
       <c r="BT25" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU25" s="41" t="str">
         <f t="shared" si="0"/>
@@ -5492,7 +5504,7 @@
         <v>42</v>
       </c>
       <c r="AT26" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU26" s="41" t="s">
         <v>29</v>
@@ -5507,7 +5519,7 @@
         <v>38</v>
       </c>
       <c r="AY26" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ26" s="41" t="s">
         <v>31</v>
@@ -5556,17 +5568,17 @@
       </c>
       <c r="BO26" s="41"/>
       <c r="BP26" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ26" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ26" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR26" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS26" s="41"/>
       <c r="BT26" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU26" s="41" t="str">
         <f t="shared" si="0"/>
@@ -5653,7 +5665,7 @@
         <v>42</v>
       </c>
       <c r="AT27" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU27" s="41" t="s">
         <v>29</v>
@@ -5668,7 +5680,7 @@
         <v>38</v>
       </c>
       <c r="AY27" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ27" s="41" t="s">
         <v>31</v>
@@ -5717,17 +5729,17 @@
       </c>
       <c r="BO27" s="41"/>
       <c r="BP27" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ27" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ27" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR27" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS27" s="41"/>
       <c r="BT27" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU27" s="41" t="str">
         <f t="shared" si="0"/>
@@ -5814,7 +5826,7 @@
         <v>42</v>
       </c>
       <c r="AT28" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU28" s="41" t="s">
         <v>29</v>
@@ -5829,7 +5841,7 @@
         <v>38</v>
       </c>
       <c r="AY28" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ28" s="41" t="s">
         <v>31</v>
@@ -5878,17 +5890,17 @@
       </c>
       <c r="BO28" s="41"/>
       <c r="BP28" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ28" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ28" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR28" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS28" s="41"/>
       <c r="BT28" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU28" s="41" t="str">
         <f t="shared" si="0"/>
@@ -5972,7 +5984,7 @@
         <v>42</v>
       </c>
       <c r="AT29" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU29" s="41" t="s">
         <v>29</v>
@@ -5987,7 +5999,7 @@
         <v>38</v>
       </c>
       <c r="AY29" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ29" s="41" t="s">
         <v>31</v>
@@ -6036,17 +6048,17 @@
       </c>
       <c r="BO29" s="41"/>
       <c r="BP29" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ29" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ29" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR29" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS29" s="41"/>
       <c r="BT29" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU29" s="41" t="str">
         <f t="shared" si="0"/>
@@ -6130,7 +6142,7 @@
         <v>42</v>
       </c>
       <c r="AT30" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU30" s="41" t="s">
         <v>29</v>
@@ -6145,7 +6157,7 @@
         <v>38</v>
       </c>
       <c r="AY30" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ30" s="41" t="s">
         <v>31</v>
@@ -6194,17 +6206,17 @@
       </c>
       <c r="BO30" s="41"/>
       <c r="BP30" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ30" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ30" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR30" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS30" s="41"/>
       <c r="BT30" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU30" s="41" t="str">
         <f t="shared" si="0"/>
@@ -6288,7 +6300,7 @@
         <v>42</v>
       </c>
       <c r="AT31" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU31" s="41" t="s">
         <v>29</v>
@@ -6303,7 +6315,7 @@
         <v>38</v>
       </c>
       <c r="AY31" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ31" s="41" t="s">
         <v>31</v>
@@ -6352,17 +6364,17 @@
       </c>
       <c r="BO31" s="41"/>
       <c r="BP31" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ31" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ31" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR31" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS31" s="41"/>
       <c r="BT31" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU31" s="41" t="str">
         <f t="shared" si="0"/>
@@ -6444,7 +6456,7 @@
         <v>42</v>
       </c>
       <c r="AT32" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU32" s="41" t="s">
         <v>29</v>
@@ -6459,7 +6471,7 @@
         <v>38</v>
       </c>
       <c r="AY32" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ32" s="41" t="s">
         <v>31</v>
@@ -6508,17 +6520,17 @@
       </c>
       <c r="BO32" s="41"/>
       <c r="BP32" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ32" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ32" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR32" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS32" s="41"/>
       <c r="BT32" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU32" s="41" t="str">
         <f t="shared" si="0"/>
@@ -6600,7 +6612,7 @@
         <v>42</v>
       </c>
       <c r="AT33" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU33" s="41" t="s">
         <v>29</v>
@@ -6615,7 +6627,7 @@
         <v>38</v>
       </c>
       <c r="AY33" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ33" s="41" t="s">
         <v>31</v>
@@ -6664,17 +6676,17 @@
       </c>
       <c r="BO33" s="41"/>
       <c r="BP33" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ33" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ33" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR33" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS33" s="41"/>
       <c r="BT33" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU33" s="41" t="str">
         <f t="shared" si="0"/>
@@ -6756,7 +6768,7 @@
         <v>42</v>
       </c>
       <c r="AT34" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU34" s="41" t="s">
         <v>29</v>
@@ -6771,7 +6783,7 @@
         <v>38</v>
       </c>
       <c r="AY34" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ34" s="41" t="s">
         <v>31</v>
@@ -6820,17 +6832,17 @@
       </c>
       <c r="BO34" s="41"/>
       <c r="BP34" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ34" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ34" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR34" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS34" s="41"/>
       <c r="BT34" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU34" s="41" t="str">
         <f t="shared" si="0"/>
@@ -6912,7 +6924,7 @@
         <v>42</v>
       </c>
       <c r="AT35" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU35" s="41" t="s">
         <v>29</v>
@@ -6927,7 +6939,7 @@
         <v>38</v>
       </c>
       <c r="AY35" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ35" s="41" t="s">
         <v>31</v>
@@ -6976,17 +6988,17 @@
       </c>
       <c r="BO35" s="41"/>
       <c r="BP35" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ35" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ35" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR35" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS35" s="41"/>
       <c r="BT35" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU35" s="41" t="str">
         <f t="shared" si="0"/>
@@ -7068,7 +7080,7 @@
         <v>42</v>
       </c>
       <c r="AT36" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU36" s="41" t="s">
         <v>29</v>
@@ -7083,7 +7095,7 @@
         <v>38</v>
       </c>
       <c r="AY36" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ36" s="41" t="s">
         <v>31</v>
@@ -7132,17 +7144,17 @@
       </c>
       <c r="BO36" s="41"/>
       <c r="BP36" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ36" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ36" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR36" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS36" s="41"/>
       <c r="BT36" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU36" s="41" t="str">
         <f t="shared" si="0"/>
@@ -7224,7 +7236,7 @@
         <v>42</v>
       </c>
       <c r="AT37" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU37" s="41" t="s">
         <v>29</v>
@@ -7239,7 +7251,7 @@
         <v>38</v>
       </c>
       <c r="AY37" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ37" s="41" t="s">
         <v>31</v>
@@ -7288,17 +7300,17 @@
       </c>
       <c r="BO37" s="41"/>
       <c r="BP37" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ37" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ37" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR37" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS37" s="41"/>
       <c r="BT37" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU37" s="41" t="str">
         <f t="shared" si="0"/>
@@ -7379,7 +7391,7 @@
         <v>42</v>
       </c>
       <c r="AT38" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU38" s="41" t="s">
         <v>29</v>
@@ -7394,7 +7406,7 @@
         <v>38</v>
       </c>
       <c r="AY38" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ38" s="41" t="s">
         <v>31</v>
@@ -7443,17 +7455,17 @@
       </c>
       <c r="BO38" s="41"/>
       <c r="BP38" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ38" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ38" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR38" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS38" s="41"/>
       <c r="BT38" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU38" s="41" t="str">
         <f t="shared" si="0"/>
@@ -7534,7 +7546,7 @@
         <v>42</v>
       </c>
       <c r="AT39" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU39" s="41" t="s">
         <v>29</v>
@@ -7549,7 +7561,7 @@
         <v>38</v>
       </c>
       <c r="AY39" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ39" s="41" t="s">
         <v>31</v>
@@ -7598,17 +7610,17 @@
       </c>
       <c r="BO39" s="41"/>
       <c r="BP39" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ39" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ39" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR39" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS39" s="41"/>
       <c r="BT39" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU39" s="41" t="str">
         <f t="shared" si="0"/>
@@ -7690,7 +7702,7 @@
         <v>42</v>
       </c>
       <c r="AT40" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU40" s="41" t="s">
         <v>29</v>
@@ -7705,7 +7717,7 @@
         <v>38</v>
       </c>
       <c r="AY40" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ40" s="41" t="s">
         <v>31</v>
@@ -7754,17 +7766,17 @@
       </c>
       <c r="BO40" s="41"/>
       <c r="BP40" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ40" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ40" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR40" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS40" s="41"/>
       <c r="BT40" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU40" s="41" t="str">
         <f t="shared" si="0"/>
@@ -7845,7 +7857,7 @@
         <v>42</v>
       </c>
       <c r="AT41" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU41" s="41" t="s">
         <v>29</v>
@@ -7860,7 +7872,7 @@
         <v>38</v>
       </c>
       <c r="AY41" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ41" s="41" t="s">
         <v>31</v>
@@ -7909,17 +7921,17 @@
       </c>
       <c r="BO41" s="41"/>
       <c r="BP41" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ41" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ41" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR41" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS41" s="41"/>
       <c r="BT41" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU41" s="41" t="str">
         <f t="shared" si="0"/>
@@ -8000,7 +8012,7 @@
         <v>42</v>
       </c>
       <c r="AT42" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU42" s="41" t="s">
         <v>29</v>
@@ -8015,7 +8027,7 @@
         <v>38</v>
       </c>
       <c r="AY42" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ42" s="41" t="s">
         <v>31</v>
@@ -8064,17 +8076,17 @@
       </c>
       <c r="BO42" s="41"/>
       <c r="BP42" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ42" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ42" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR42" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS42" s="41"/>
       <c r="BT42" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU42" s="41" t="str">
         <f t="shared" si="0"/>
@@ -8154,7 +8166,7 @@
         <v>42</v>
       </c>
       <c r="AT43" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU43" s="41" t="s">
         <v>29</v>
@@ -8169,7 +8181,7 @@
         <v>38</v>
       </c>
       <c r="AY43" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ43" s="41" t="s">
         <v>31</v>
@@ -8218,17 +8230,17 @@
       </c>
       <c r="BO43" s="41"/>
       <c r="BP43" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ43" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ43" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR43" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS43" s="41"/>
       <c r="BT43" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU43" s="41" t="str">
         <f t="shared" si="0"/>
@@ -8308,7 +8320,7 @@
         <v>42</v>
       </c>
       <c r="AT44" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU44" s="41" t="s">
         <v>29</v>
@@ -8323,7 +8335,7 @@
         <v>38</v>
       </c>
       <c r="AY44" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ44" s="41" t="s">
         <v>31</v>
@@ -8372,17 +8384,17 @@
       </c>
       <c r="BO44" s="41"/>
       <c r="BP44" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ44" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ44" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR44" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS44" s="41"/>
       <c r="BT44" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU44" s="41" t="str">
         <f t="shared" si="0"/>
@@ -8462,7 +8474,7 @@
         <v>42</v>
       </c>
       <c r="AT45" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU45" s="41" t="s">
         <v>29</v>
@@ -8477,7 +8489,7 @@
         <v>38</v>
       </c>
       <c r="AY45" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ45" s="41" t="s">
         <v>31</v>
@@ -8526,17 +8538,17 @@
       </c>
       <c r="BO45" s="41"/>
       <c r="BP45" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ45" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ45" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR45" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS45" s="41"/>
       <c r="BT45" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU45" s="41" t="str">
         <f t="shared" si="0"/>
@@ -8616,7 +8628,7 @@
         <v>42</v>
       </c>
       <c r="AT46" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU46" s="41" t="s">
         <v>29</v>
@@ -8631,7 +8643,7 @@
         <v>38</v>
       </c>
       <c r="AY46" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ46" s="41" t="s">
         <v>31</v>
@@ -8680,17 +8692,17 @@
       </c>
       <c r="BO46" s="41"/>
       <c r="BP46" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ46" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ46" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR46" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS46" s="41"/>
       <c r="BT46" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU46" s="41" t="str">
         <f t="shared" si="0"/>
@@ -8770,7 +8782,7 @@
         <v>42</v>
       </c>
       <c r="AT47" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU47" s="41" t="s">
         <v>29</v>
@@ -8785,7 +8797,7 @@
         <v>38</v>
       </c>
       <c r="AY47" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ47" s="41" t="s">
         <v>31</v>
@@ -8834,17 +8846,17 @@
       </c>
       <c r="BO47" s="41"/>
       <c r="BP47" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ47" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ47" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR47" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS47" s="41"/>
       <c r="BT47" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU47" s="41" t="str">
         <f t="shared" si="0"/>
@@ -8924,7 +8936,7 @@
         <v>42</v>
       </c>
       <c r="AT48" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU48" s="41" t="s">
         <v>29</v>
@@ -8939,7 +8951,7 @@
         <v>38</v>
       </c>
       <c r="AY48" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ48" s="41" t="s">
         <v>31</v>
@@ -8988,17 +9000,17 @@
       </c>
       <c r="BO48" s="41"/>
       <c r="BP48" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ48" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ48" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR48" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS48" s="41"/>
       <c r="BT48" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU48" s="41" t="str">
         <f t="shared" si="0"/>
@@ -9078,7 +9090,7 @@
         <v>42</v>
       </c>
       <c r="AT49" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU49" s="41" t="s">
         <v>29</v>
@@ -9093,7 +9105,7 @@
         <v>38</v>
       </c>
       <c r="AY49" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ49" s="41" t="s">
         <v>31</v>
@@ -9142,17 +9154,17 @@
       </c>
       <c r="BO49" s="41"/>
       <c r="BP49" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ49" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ49" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR49" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS49" s="41"/>
       <c r="BT49" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU49" s="41" t="str">
         <f t="shared" si="0"/>
@@ -9232,7 +9244,7 @@
         <v>42</v>
       </c>
       <c r="AT50" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU50" s="41" t="s">
         <v>29</v>
@@ -9247,7 +9259,7 @@
         <v>38</v>
       </c>
       <c r="AY50" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ50" s="41" t="s">
         <v>31</v>
@@ -9296,17 +9308,17 @@
       </c>
       <c r="BO50" s="41"/>
       <c r="BP50" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ50" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ50" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR50" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS50" s="41"/>
       <c r="BT50" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU50" s="41" t="str">
         <f t="shared" si="0"/>
@@ -9386,7 +9398,7 @@
         <v>42</v>
       </c>
       <c r="AT51" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU51" s="41" t="s">
         <v>29</v>
@@ -9401,7 +9413,7 @@
         <v>38</v>
       </c>
       <c r="AY51" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ51" s="41" t="s">
         <v>31</v>
@@ -9450,17 +9462,17 @@
       </c>
       <c r="BO51" s="41"/>
       <c r="BP51" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ51" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ51" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR51" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS51" s="41"/>
       <c r="BT51" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU51" s="41" t="str">
         <f t="shared" si="0"/>
@@ -9540,7 +9552,7 @@
         <v>42</v>
       </c>
       <c r="AT52" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU52" s="41" t="s">
         <v>29</v>
@@ -9555,7 +9567,7 @@
         <v>38</v>
       </c>
       <c r="AY52" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ52" s="41" t="s">
         <v>31</v>
@@ -9604,17 +9616,17 @@
       </c>
       <c r="BO52" s="41"/>
       <c r="BP52" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ52" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ52" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR52" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS52" s="41"/>
       <c r="BT52" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU52" s="41" t="str">
         <f t="shared" si="0"/>
@@ -9694,7 +9706,7 @@
         <v>42</v>
       </c>
       <c r="AT53" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU53" s="41" t="s">
         <v>29</v>
@@ -9709,7 +9721,7 @@
         <v>38</v>
       </c>
       <c r="AY53" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ53" s="41" t="s">
         <v>31</v>
@@ -9758,17 +9770,17 @@
       </c>
       <c r="BO53" s="41"/>
       <c r="BP53" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ53" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ53" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR53" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS53" s="41"/>
       <c r="BT53" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU53" s="41" t="str">
         <f t="shared" si="0"/>
@@ -9848,7 +9860,7 @@
         <v>42</v>
       </c>
       <c r="AT54" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU54" s="41" t="s">
         <v>29</v>
@@ -9863,7 +9875,7 @@
         <v>38</v>
       </c>
       <c r="AY54" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ54" s="41" t="s">
         <v>31</v>
@@ -9912,17 +9924,17 @@
       </c>
       <c r="BO54" s="41"/>
       <c r="BP54" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ54" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ54" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR54" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS54" s="41"/>
       <c r="BT54" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU54" s="41" t="str">
         <f t="shared" si="0"/>
@@ -10002,7 +10014,7 @@
         <v>42</v>
       </c>
       <c r="AT55" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU55" s="41" t="s">
         <v>29</v>
@@ -10017,7 +10029,7 @@
         <v>38</v>
       </c>
       <c r="AY55" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ55" s="41" t="s">
         <v>31</v>
@@ -10066,17 +10078,17 @@
       </c>
       <c r="BO55" s="41"/>
       <c r="BP55" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ55" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ55" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR55" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS55" s="41"/>
       <c r="BT55" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU55" s="41" t="str">
         <f t="shared" si="0"/>
@@ -10156,7 +10168,7 @@
         <v>42</v>
       </c>
       <c r="AT56" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU56" s="41" t="s">
         <v>29</v>
@@ -10171,7 +10183,7 @@
         <v>38</v>
       </c>
       <c r="AY56" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ56" s="41" t="s">
         <v>31</v>
@@ -10220,17 +10232,17 @@
       </c>
       <c r="BO56" s="41"/>
       <c r="BP56" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ56" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ56" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR56" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS56" s="41"/>
       <c r="BT56" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU56" s="41" t="str">
         <f t="shared" si="0"/>
@@ -10310,7 +10322,7 @@
         <v>42</v>
       </c>
       <c r="AT57" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU57" s="41" t="s">
         <v>29</v>
@@ -10325,7 +10337,7 @@
         <v>38</v>
       </c>
       <c r="AY57" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ57" s="41" t="s">
         <v>31</v>
@@ -10374,17 +10386,17 @@
       </c>
       <c r="BO57" s="41"/>
       <c r="BP57" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ57" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ57" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR57" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS57" s="41"/>
       <c r="BT57" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU57" s="41" t="str">
         <f t="shared" si="0"/>
@@ -10464,7 +10476,7 @@
         <v>42</v>
       </c>
       <c r="AT58" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU58" s="41" t="s">
         <v>29</v>
@@ -10479,7 +10491,7 @@
         <v>38</v>
       </c>
       <c r="AY58" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ58" s="41" t="s">
         <v>31</v>
@@ -10528,17 +10540,17 @@
       </c>
       <c r="BO58" s="41"/>
       <c r="BP58" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ58" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ58" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR58" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS58" s="41"/>
       <c r="BT58" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU58" s="41" t="str">
         <f t="shared" si="0"/>
@@ -10618,7 +10630,7 @@
         <v>42</v>
       </c>
       <c r="AT59" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU59" s="41" t="s">
         <v>29</v>
@@ -10633,7 +10645,7 @@
         <v>38</v>
       </c>
       <c r="AY59" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ59" s="41" t="s">
         <v>31</v>
@@ -10682,17 +10694,17 @@
       </c>
       <c r="BO59" s="41"/>
       <c r="BP59" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ59" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ59" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR59" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS59" s="41"/>
       <c r="BT59" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU59" s="41" t="str">
         <f t="shared" si="0"/>
@@ -10772,7 +10784,7 @@
         <v>42</v>
       </c>
       <c r="AT60" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU60" s="41" t="s">
         <v>29</v>
@@ -10787,7 +10799,7 @@
         <v>38</v>
       </c>
       <c r="AY60" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ60" s="41" t="s">
         <v>31</v>
@@ -10836,17 +10848,17 @@
       </c>
       <c r="BO60" s="41"/>
       <c r="BP60" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ60" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ60" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR60" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS60" s="41"/>
       <c r="BT60" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU60" s="41" t="str">
         <f t="shared" si="0"/>
@@ -10924,7 +10936,7 @@
         <v>42</v>
       </c>
       <c r="AT61" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU61" s="41" t="s">
         <v>29</v>
@@ -10939,7 +10951,7 @@
         <v>38</v>
       </c>
       <c r="AY61" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ61" s="41" t="s">
         <v>31</v>
@@ -10988,17 +11000,17 @@
       </c>
       <c r="BO61" s="41"/>
       <c r="BP61" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ61" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ61" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR61" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS61" s="41"/>
       <c r="BT61" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU61" s="41" t="str">
         <f t="shared" ref="BU61:BU65" si="8">IF(F67=BT61,SUM(H67),"")</f>
@@ -11076,7 +11088,7 @@
         <v>42</v>
       </c>
       <c r="AT62" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU62" s="41" t="s">
         <v>29</v>
@@ -11091,7 +11103,7 @@
         <v>38</v>
       </c>
       <c r="AY62" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ62" s="41" t="s">
         <v>31</v>
@@ -11140,17 +11152,17 @@
       </c>
       <c r="BO62" s="41"/>
       <c r="BP62" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ62" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ62" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR62" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS62" s="41"/>
       <c r="BT62" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU62" s="41" t="str">
         <f t="shared" si="8"/>
@@ -11228,7 +11240,7 @@
         <v>42</v>
       </c>
       <c r="AT63" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU63" s="41" t="s">
         <v>29</v>
@@ -11243,7 +11255,7 @@
         <v>38</v>
       </c>
       <c r="AY63" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ63" s="41" t="s">
         <v>31</v>
@@ -11292,17 +11304,17 @@
       </c>
       <c r="BO63" s="41"/>
       <c r="BP63" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ63" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ63" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR63" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS63" s="41"/>
       <c r="BT63" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU63" s="41" t="str">
         <f t="shared" si="8"/>
@@ -11380,7 +11392,7 @@
         <v>42</v>
       </c>
       <c r="AT64" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU64" s="41" t="s">
         <v>29</v>
@@ -11395,7 +11407,7 @@
         <v>38</v>
       </c>
       <c r="AY64" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ64" s="41" t="s">
         <v>31</v>
@@ -11444,17 +11456,17 @@
       </c>
       <c r="BO64" s="41"/>
       <c r="BP64" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ64" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ64" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR64" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS64" s="41"/>
       <c r="BT64" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU64" s="41" t="str">
         <f t="shared" si="8"/>
@@ -11532,7 +11544,7 @@
         <v>42</v>
       </c>
       <c r="AT65" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU65" s="41" t="s">
         <v>29</v>
@@ -11547,7 +11559,7 @@
         <v>38</v>
       </c>
       <c r="AY65" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ65" s="41" t="s">
         <v>31</v>
@@ -11596,17 +11608,17 @@
       </c>
       <c r="BO65" s="41"/>
       <c r="BP65" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ65" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ65" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR65" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS65" s="41"/>
       <c r="BT65" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU65" s="41" t="str">
         <f t="shared" si="8"/>
@@ -11684,7 +11696,7 @@
         <v>42</v>
       </c>
       <c r="AT66" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU66" s="41" t="s">
         <v>29</v>
@@ -11699,7 +11711,7 @@
         <v>38</v>
       </c>
       <c r="AY66" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ66" s="41" t="s">
         <v>31</v>
@@ -11748,17 +11760,17 @@
       </c>
       <c r="BO66" s="41"/>
       <c r="BP66" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ66" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ66" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR66" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS66" s="41"/>
       <c r="BT66" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU66" s="41" t="str">
         <f t="shared" ref="BU66:BU67" si="11">IF(F72=BT66,SUM(H72),"")</f>
@@ -11821,7 +11833,7 @@
         <v>42</v>
       </c>
       <c r="AT67" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU67" s="41" t="s">
         <v>29</v>
@@ -11836,7 +11848,7 @@
         <v>38</v>
       </c>
       <c r="AY67" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ67" s="41" t="s">
         <v>31</v>
@@ -11885,17 +11897,17 @@
       </c>
       <c r="BO67" s="41"/>
       <c r="BP67" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ67" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ67" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR67" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS67" s="41"/>
       <c r="BT67" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU67" s="41" t="str">
         <f t="shared" si="11"/>
@@ -11958,7 +11970,7 @@
         <v>42</v>
       </c>
       <c r="AT68" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU68" s="41" t="s">
         <v>29</v>
@@ -11973,7 +11985,7 @@
         <v>38</v>
       </c>
       <c r="AY68" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ68" s="41" t="s">
         <v>31</v>
@@ -12022,17 +12034,17 @@
       </c>
       <c r="BO68" s="41"/>
       <c r="BP68" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ68" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ68" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR68" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS68" s="41"/>
       <c r="BT68" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU68" s="41" t="str">
         <f t="shared" ref="BU68:BU70" si="15">IF(F74=BT68,SUM(H74),"")</f>
@@ -12095,7 +12107,7 @@
         <v>42</v>
       </c>
       <c r="AT69" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU69" s="41" t="s">
         <v>29</v>
@@ -12110,7 +12122,7 @@
         <v>38</v>
       </c>
       <c r="AY69" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ69" s="41" t="s">
         <v>31</v>
@@ -12159,17 +12171,17 @@
       </c>
       <c r="BO69" s="41"/>
       <c r="BP69" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ69" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ69" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR69" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS69" s="41"/>
       <c r="BT69" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU69" s="41" t="str">
         <f t="shared" si="15"/>
@@ -12232,7 +12244,7 @@
         <v>42</v>
       </c>
       <c r="AT70" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU70" s="41" t="s">
         <v>29</v>
@@ -12247,7 +12259,7 @@
         <v>38</v>
       </c>
       <c r="AY70" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ70" s="41" t="s">
         <v>31</v>
@@ -12296,17 +12308,17 @@
       </c>
       <c r="BO70" s="41"/>
       <c r="BP70" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ70" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="BQ70" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="BR70" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS70" s="41"/>
       <c r="BT70" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BU70" s="41" t="str">
         <f t="shared" si="15"/>
@@ -12473,7 +12485,7 @@
   <dimension ref="A1:M99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12493,45 +12505,51 @@
         <v>70</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="F1" s="11">
+        <v>0</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
       <c r="B2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="11">
         <v>3000</v>
       </c>
-      <c r="I2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="55">
         <f>IF(I2=D3,"3000",IF(I2=D4,"4600",IF(I2=D5,"PREVIA COTIZACION;""")))+L2</f>
         <v>1000</v>
       </c>
-      <c r="L2" s="10" t="str">
+      <c r="L2" s="55" t="str">
         <f>IF(J2=E2,"1000",IF(J2=E3,"1000","0"))</f>
         <v>1000</v>
       </c>
@@ -12539,253 +12557,402 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="11">
+        <v>4000</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="11">
         <v>5000</v>
       </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>71</v>
+      <c r="A5" t="s">
+        <v>51</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="11">
         <v>4600</v>
       </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="11">
         <v>5600</v>
       </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="11">
         <v>6000</v>
       </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="11">
         <v>6600</v>
       </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>43</v>
       </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>42</v>
       </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>84</v>
-      </c>
+      <c r="A11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>29</v>
       </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>44</v>
       </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>26</v>
       </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>38</v>
       </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>11</v>
+      <c r="A33" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12909,59 +13076,57 @@
       </c>
     </row>
     <row r="58" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>72</v>
+      <c r="A58" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>56</v>
+      <c r="A59" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>73</v>
+      <c r="A60" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>59</v>
-      </c>
+      <c r="A68" s="5"/>
     </row>
     <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/EnvioTexCargoPlanillav1.xlsx
+++ b/EnvioTexCargoPlanillav1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Equipo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Miguel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEA673B-A7A5-45DB-9F57-F8FCA7B1064C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7320"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanilladeCargaTexcargo" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
     <definedName name="comuna">#REF!</definedName>
     <definedName name="receptor">PlanilladeCargaTexcargo!$E$7</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="autoNoTable"/>
+  <calcPr calcId="191029" calcMode="autoNoTable"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2509" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2531" uniqueCount="110">
   <si>
     <t>PLANILLA DE CARGA</t>
   </si>
@@ -296,9 +297,6 @@
     <t>MiniTicket Hasta 2 Kg</t>
   </si>
   <si>
-    <t xml:space="preserve">MediumTicket Hasta 7 kg </t>
-  </si>
-  <si>
     <t>DEBE INCLUIR EN EL CORREO:</t>
   </si>
   <si>
@@ -315,9 +313,6 @@
   </si>
   <si>
     <t>TOTAL A PAGAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaxiTicket de 8 kg Hasta 25 Kg </t>
   </si>
   <si>
     <t>OBSERVACION EN PLANILLA</t>
@@ -366,11 +361,17 @@
   <si>
     <t>MaxiTicket de 8 kg Hasta 25 Kg</t>
   </si>
+  <si>
+    <t>NOMBRE DE QUIEN RECIBE</t>
+  </si>
+  <si>
+    <t>CALLE 123 DPTO O CASA 22</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
@@ -709,7 +710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -787,9 +788,6 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -803,6 +801,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -996,7 +999,13 @@
     <xdr:ext cx="1895475" cy="733425"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.jpg"/>
+        <xdr:cNvPr id="2" name="image1.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1018,33 +1027,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:A68" totalsRowShown="0">
-  <autoFilter ref="A1:A68"/>
-  <sortState ref="A2:A68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla2" displayName="Tabla2" ref="A1:A68" totalsRowShown="0">
+  <autoFilter ref="A1:A68" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A68">
     <sortCondition ref="A1:A68"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="Comunas"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Comunas"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B1:B4" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="B1:B4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla3" displayName="Tabla3" ref="B1:B4" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="B1:B4" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Servicio" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Servicio" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="D1:D6" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="D1:D6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla4" displayName="Tabla4" ref="D1:D6" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="D1:D6" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Columna1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Columna1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1341,11 +1350,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BX86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BZ86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1380,11 +1389,17 @@
     <col min="62" max="64" width="0" hidden="1" customWidth="1"/>
     <col min="65" max="65" width="19.28515625" hidden="1" customWidth="1"/>
     <col min="66" max="67" width="0" hidden="1" customWidth="1"/>
-    <col min="68" max="68" width="19.42578125" hidden="1" customWidth="1"/>
-    <col min="69" max="69" width="23" hidden="1" customWidth="1"/>
-    <col min="70" max="70" width="27.28515625" hidden="1" customWidth="1"/>
-    <col min="71" max="75" width="0" hidden="1" customWidth="1"/>
-    <col min="76" max="76" width="31" style="44" customWidth="1"/>
+    <col min="68" max="68" width="20.42578125" hidden="1" customWidth="1"/>
+    <col min="69" max="69" width="29.42578125" hidden="1" customWidth="1"/>
+    <col min="70" max="70" width="36.85546875" hidden="1" customWidth="1"/>
+    <col min="71" max="71" width="45.85546875" hidden="1" customWidth="1"/>
+    <col min="72" max="72" width="36.42578125" hidden="1" customWidth="1"/>
+    <col min="73" max="73" width="41.28515625" hidden="1" customWidth="1"/>
+    <col min="74" max="74" width="42" hidden="1" customWidth="1"/>
+    <col min="75" max="75" width="61.42578125" hidden="1" customWidth="1"/>
+    <col min="76" max="76" width="31" style="44" hidden="1" customWidth="1"/>
+    <col min="77" max="77" width="0" hidden="1" customWidth="1"/>
+    <col min="78" max="78" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:76" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1393,18 +1408,18 @@
         <v>86</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="33"/>
       <c r="H1" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I1" s="27"/>
       <c r="J1" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U1" s="21"/>
       <c r="V1" s="21"/>
@@ -1524,27 +1539,27 @@
         <v>89</v>
       </c>
       <c r="BQ1" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR1" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS1" s="41"/>
       <c r="BT1" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="BU1" s="41" t="str">
+      <c r="BU1" s="41">
         <f>IF(F7=BT1,SUM(H7),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV1" s="41">
         <f>SUM(BU1:BU60)</f>
         <v>0</v>
       </c>
       <c r="BW1" s="41"/>
-      <c r="BX1" s="48" t="str">
+      <c r="BX1" s="57" t="str">
         <f>IF(ISNONTEXT(A7),"EMPECEMOS A ENVIAR",IF(ISTEXT(A7),IF(ISBLANK(B7),"FAVOR ESCRIBIR APELLIDO",IF(ISBLANK(C7),"FAVOR ESCRIBIR DIRECCION",IF(ISBLANK(D7),"FAVOR INTRODUCIR NUMERO DE TELEFONO",IF(ISBLANK(E7),"FAVOR SELECCIONAR COMUNA",IF(ISBLANK(F7),"FAVOR SELECCIONAR TIPO DE PAGO",IF(ISBLANK(G7),"FAVOR SELECCIONAR TIPO DE ENCOMIENDA","OK"))))))))</f>
-        <v>EMPECEMOS A ENVIAR</v>
+        <v>FAVOR SELECCIONAR COMUNA</v>
       </c>
     </row>
     <row r="2" spans="1:76" x14ac:dyDescent="0.25">
@@ -1552,21 +1567,21 @@
       <c r="B2" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="C2" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
       <c r="G2" s="33"/>
       <c r="H2" s="31" t="s">
         <v>88</v>
       </c>
       <c r="I2" s="29"/>
       <c r="J2" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V2" s="21"/>
       <c r="W2" s="21"/>
@@ -1685,10 +1700,10 @@
         <v>89</v>
       </c>
       <c r="BQ2" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR2" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS2" s="41"/>
       <c r="BT2" s="41" t="s">
@@ -1700,7 +1715,7 @@
       </c>
       <c r="BV2" s="41"/>
       <c r="BW2" s="41"/>
-      <c r="BX2" s="48" t="str">
+      <c r="BX2" s="57" t="str">
         <f t="shared" ref="BX2:BX65" si="1">IF(ISNONTEXT(A8),"EMPECEMOS A ENVIAR",IF(ISTEXT(A8),IF(ISBLANK(B8),"FAVOR ESCRIBIR APELLIDO",IF(ISBLANK(C8),"FAVOR ESCRIBIR DIRECCION",IF(ISBLANK(D8),"FAVOR INTRODUCIR NUMERO DE TELEFONO",IF(ISBLANK(E8),"FAVOR SELECCIONAR COMUNA",IF(ISBLANK(F8),"FAVOR SELECCIONAR TIPO DE PAGO",IF(ISBLANK(G8),"FAVOR SELECCIONAR TIPO DE ENCOMIENDA","OK"))))))))</f>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -1709,27 +1724,27 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="G3" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="G3" s="52" t="s">
-        <v>105</v>
-      </c>
       <c r="H3" s="36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I3" s="37">
         <f>BV1</f>
         <v>0</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V3" s="11"/>
       <c r="W3" s="21"/>
@@ -1855,10 +1870,10 @@
         <v>89</v>
       </c>
       <c r="BQ3" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR3" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS3" s="41"/>
       <c r="BT3" s="41" t="s">
@@ -1870,28 +1885,28 @@
       </c>
       <c r="BV3" s="41"/>
       <c r="BW3" s="41"/>
-      <c r="BX3" s="48" t="str">
+      <c r="BX3" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
     </row>
     <row r="4" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="50"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="54">
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53">
         <f>D4*E4*F4/4000</f>
         <v>0</v>
       </c>
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
       <c r="J4" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
@@ -2017,10 +2032,10 @@
         <v>89</v>
       </c>
       <c r="BQ4" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR4" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS4" s="41"/>
       <c r="BT4" s="41" t="s">
@@ -2032,7 +2047,7 @@
       </c>
       <c r="BV4" s="41"/>
       <c r="BW4" s="41"/>
-      <c r="BX4" s="48" t="str">
+      <c r="BX4" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -2040,15 +2055,15 @@
     <row r="5" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="25"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="60"/>
       <c r="H5" s="1"/>
       <c r="I5" s="2"/>
       <c r="J5" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
@@ -2174,10 +2189,10 @@
         <v>89</v>
       </c>
       <c r="BQ5" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR5" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS5" s="41"/>
       <c r="BT5" s="41" t="s">
@@ -2189,7 +2204,7 @@
       </c>
       <c r="BV5" s="41"/>
       <c r="BW5" s="41"/>
-      <c r="BX5" s="48" t="str">
+      <c r="BX5" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -2219,11 +2234,11 @@
       <c r="H6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="I6" s="48" t="s">
         <v>8</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K6" s="10"/>
       <c r="V6" s="11"/>
@@ -2350,10 +2365,10 @@
         <v>89</v>
       </c>
       <c r="BQ6" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR6" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS6" s="41"/>
       <c r="BT6" s="41" t="s">
@@ -2365,18 +2380,28 @@
       </c>
       <c r="BV6" s="41"/>
       <c r="BW6" s="41"/>
-      <c r="BX6" s="48" t="str">
+      <c r="BX6" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
     </row>
     <row r="7" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="7"/>
+      <c r="A7" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="13">
+        <v>123456789</v>
+      </c>
+      <c r="E7" s="55"/>
+      <c r="F7" s="56" t="s">
+        <v>77</v>
+      </c>
       <c r="G7" s="19"/>
       <c r="H7" s="45">
         <f>AI3</f>
@@ -2385,7 +2410,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="16" t="str">
         <f>BX1</f>
-        <v>EMPECEMOS A ENVIAR</v>
+        <v>FAVOR SELECCIONAR COMUNA</v>
       </c>
       <c r="K7" s="10"/>
       <c r="V7" s="11"/>
@@ -2512,10 +2537,10 @@
         <v>89</v>
       </c>
       <c r="BQ7" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR7" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS7" s="41"/>
       <c r="BT7" s="41" t="s">
@@ -2527,7 +2552,7 @@
       </c>
       <c r="BV7" s="41"/>
       <c r="BW7" s="41"/>
-      <c r="BX7" s="48" t="str">
+      <c r="BX7" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -2537,8 +2562,8 @@
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="56"/>
       <c r="G8" s="19"/>
       <c r="H8" s="45">
         <f t="shared" ref="H8:H66" si="4">AI4</f>
@@ -2673,10 +2698,10 @@
         <v>89</v>
       </c>
       <c r="BQ8" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR8" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS8" s="41"/>
       <c r="BT8" s="41" t="s">
@@ -2688,7 +2713,7 @@
       </c>
       <c r="BV8" s="41"/>
       <c r="BW8" s="41"/>
-      <c r="BX8" s="48" t="str">
+      <c r="BX8" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -2698,8 +2723,8 @@
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="7"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="56"/>
       <c r="G9" s="19"/>
       <c r="H9" s="45">
         <f t="shared" si="4"/>
@@ -2834,10 +2859,10 @@
         <v>89</v>
       </c>
       <c r="BQ9" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR9" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS9" s="41"/>
       <c r="BT9" s="41" t="s">
@@ -2849,7 +2874,7 @@
       </c>
       <c r="BV9" s="41"/>
       <c r="BW9" s="41"/>
-      <c r="BX9" s="48" t="str">
+      <c r="BX9" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -2859,8 +2884,8 @@
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="56"/>
       <c r="G10" s="19"/>
       <c r="H10" s="45">
         <f t="shared" si="4"/>
@@ -2995,10 +3020,10 @@
         <v>89</v>
       </c>
       <c r="BQ10" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR10" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS10" s="41"/>
       <c r="BT10" s="41" t="s">
@@ -3010,7 +3035,7 @@
       </c>
       <c r="BV10" s="41"/>
       <c r="BW10" s="41"/>
-      <c r="BX10" s="48" t="str">
+      <c r="BX10" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -3020,8 +3045,8 @@
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="7"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="56"/>
       <c r="G11" s="19"/>
       <c r="H11" s="45">
         <f t="shared" si="4"/>
@@ -3156,10 +3181,10 @@
         <v>89</v>
       </c>
       <c r="BQ11" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR11" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS11" s="41"/>
       <c r="BT11" s="41" t="s">
@@ -3171,7 +3196,7 @@
       </c>
       <c r="BV11" s="41"/>
       <c r="BW11" s="41"/>
-      <c r="BX11" s="48" t="str">
+      <c r="BX11" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -3317,10 +3342,10 @@
         <v>89</v>
       </c>
       <c r="BQ12" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR12" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS12" s="41"/>
       <c r="BT12" s="41" t="s">
@@ -3332,7 +3357,7 @@
       </c>
       <c r="BV12" s="41"/>
       <c r="BW12" s="41"/>
-      <c r="BX12" s="48" t="str">
+      <c r="BX12" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -3478,10 +3503,10 @@
         <v>89</v>
       </c>
       <c r="BQ13" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR13" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS13" s="41"/>
       <c r="BT13" s="41" t="s">
@@ -3493,7 +3518,7 @@
       </c>
       <c r="BV13" s="41"/>
       <c r="BW13" s="41"/>
-      <c r="BX13" s="48" t="str">
+      <c r="BX13" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -3639,10 +3664,10 @@
         <v>89</v>
       </c>
       <c r="BQ14" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR14" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS14" s="41"/>
       <c r="BT14" s="41" t="s">
@@ -3654,7 +3679,7 @@
       </c>
       <c r="BV14" s="41"/>
       <c r="BW14" s="41"/>
-      <c r="BX14" s="48" t="str">
+      <c r="BX14" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -3800,10 +3825,10 @@
         <v>89</v>
       </c>
       <c r="BQ15" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR15" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS15" s="41"/>
       <c r="BT15" s="41" t="s">
@@ -3815,7 +3840,7 @@
       </c>
       <c r="BV15" s="41"/>
       <c r="BW15" s="41"/>
-      <c r="BX15" s="48" t="str">
+      <c r="BX15" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -3961,10 +3986,10 @@
         <v>89</v>
       </c>
       <c r="BQ16" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR16" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS16" s="41"/>
       <c r="BT16" s="41" t="s">
@@ -3976,7 +4001,7 @@
       </c>
       <c r="BV16" s="41"/>
       <c r="BW16" s="41"/>
-      <c r="BX16" s="48" t="str">
+      <c r="BX16" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -4122,10 +4147,10 @@
         <v>89</v>
       </c>
       <c r="BQ17" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR17" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS17" s="41"/>
       <c r="BT17" s="41" t="s">
@@ -4137,7 +4162,7 @@
       </c>
       <c r="BV17" s="41"/>
       <c r="BW17" s="41"/>
-      <c r="BX17" s="48" t="str">
+      <c r="BX17" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -4283,10 +4308,10 @@
         <v>89</v>
       </c>
       <c r="BQ18" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR18" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS18" s="41"/>
       <c r="BT18" s="41" t="s">
@@ -4298,7 +4323,7 @@
       </c>
       <c r="BV18" s="41"/>
       <c r="BW18" s="41"/>
-      <c r="BX18" s="48" t="str">
+      <c r="BX18" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -4444,10 +4469,10 @@
         <v>89</v>
       </c>
       <c r="BQ19" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR19" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS19" s="41"/>
       <c r="BT19" s="41" t="s">
@@ -4459,7 +4484,7 @@
       </c>
       <c r="BV19" s="41"/>
       <c r="BW19" s="41"/>
-      <c r="BX19" s="48" t="str">
+      <c r="BX19" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -4605,10 +4630,10 @@
         <v>89</v>
       </c>
       <c r="BQ20" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR20" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS20" s="41"/>
       <c r="BT20" s="41" t="s">
@@ -4620,7 +4645,7 @@
       </c>
       <c r="BV20" s="41"/>
       <c r="BW20" s="41"/>
-      <c r="BX20" s="48" t="str">
+      <c r="BX20" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -4766,10 +4791,10 @@
         <v>89</v>
       </c>
       <c r="BQ21" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR21" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS21" s="41"/>
       <c r="BT21" s="41" t="s">
@@ -4781,7 +4806,7 @@
       </c>
       <c r="BV21" s="41"/>
       <c r="BW21" s="41"/>
-      <c r="BX21" s="48" t="str">
+      <c r="BX21" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -4927,10 +4952,10 @@
         <v>89</v>
       </c>
       <c r="BQ22" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR22" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS22" s="41"/>
       <c r="BT22" s="41" t="s">
@@ -4942,7 +4967,7 @@
       </c>
       <c r="BV22" s="41"/>
       <c r="BW22" s="41"/>
-      <c r="BX22" s="48" t="str">
+      <c r="BX22" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -5088,10 +5113,10 @@
         <v>89</v>
       </c>
       <c r="BQ23" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR23" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS23" s="41"/>
       <c r="BT23" s="41" t="s">
@@ -5103,7 +5128,7 @@
       </c>
       <c r="BV23" s="41"/>
       <c r="BW23" s="41"/>
-      <c r="BX23" s="48" t="str">
+      <c r="BX23" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -5249,10 +5274,10 @@
         <v>89</v>
       </c>
       <c r="BQ24" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR24" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS24" s="41"/>
       <c r="BT24" s="41" t="s">
@@ -5264,7 +5289,7 @@
       </c>
       <c r="BV24" s="41"/>
       <c r="BW24" s="41"/>
-      <c r="BX24" s="48" t="str">
+      <c r="BX24" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -5410,10 +5435,10 @@
         <v>89</v>
       </c>
       <c r="BQ25" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR25" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS25" s="41"/>
       <c r="BT25" s="41" t="s">
@@ -5425,7 +5450,7 @@
       </c>
       <c r="BV25" s="41"/>
       <c r="BW25" s="41"/>
-      <c r="BX25" s="48" t="str">
+      <c r="BX25" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -5571,10 +5596,10 @@
         <v>89</v>
       </c>
       <c r="BQ26" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR26" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS26" s="41"/>
       <c r="BT26" s="41" t="s">
@@ -5586,7 +5611,7 @@
       </c>
       <c r="BV26" s="41"/>
       <c r="BW26" s="41"/>
-      <c r="BX26" s="48" t="str">
+      <c r="BX26" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -5732,10 +5757,10 @@
         <v>89</v>
       </c>
       <c r="BQ27" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR27" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS27" s="41"/>
       <c r="BT27" s="41" t="s">
@@ -5747,7 +5772,7 @@
       </c>
       <c r="BV27" s="41"/>
       <c r="BW27" s="41"/>
-      <c r="BX27" s="48" t="str">
+      <c r="BX27" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -5893,10 +5918,10 @@
         <v>89</v>
       </c>
       <c r="BQ28" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR28" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS28" s="41"/>
       <c r="BT28" s="41" t="s">
@@ -5908,7 +5933,7 @@
       </c>
       <c r="BV28" s="41"/>
       <c r="BW28" s="41"/>
-      <c r="BX28" s="48" t="str">
+      <c r="BX28" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -6051,10 +6076,10 @@
         <v>89</v>
       </c>
       <c r="BQ29" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR29" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS29" s="41"/>
       <c r="BT29" s="41" t="s">
@@ -6066,7 +6091,7 @@
       </c>
       <c r="BV29" s="41"/>
       <c r="BW29" s="41"/>
-      <c r="BX29" s="48" t="str">
+      <c r="BX29" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -6209,10 +6234,10 @@
         <v>89</v>
       </c>
       <c r="BQ30" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR30" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS30" s="41"/>
       <c r="BT30" s="41" t="s">
@@ -6224,7 +6249,7 @@
       </c>
       <c r="BV30" s="41"/>
       <c r="BW30" s="41"/>
-      <c r="BX30" s="48" t="str">
+      <c r="BX30" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -6367,10 +6392,10 @@
         <v>89</v>
       </c>
       <c r="BQ31" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR31" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS31" s="41"/>
       <c r="BT31" s="41" t="s">
@@ -6382,7 +6407,7 @@
       </c>
       <c r="BV31" s="41"/>
       <c r="BW31" s="41"/>
-      <c r="BX31" s="48" t="str">
+      <c r="BX31" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -6523,10 +6548,10 @@
         <v>89</v>
       </c>
       <c r="BQ32" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR32" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS32" s="41"/>
       <c r="BT32" s="41" t="s">
@@ -6538,7 +6563,7 @@
       </c>
       <c r="BV32" s="41"/>
       <c r="BW32" s="41"/>
-      <c r="BX32" s="48" t="str">
+      <c r="BX32" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -6679,10 +6704,10 @@
         <v>89</v>
       </c>
       <c r="BQ33" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR33" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS33" s="41"/>
       <c r="BT33" s="41" t="s">
@@ -6694,7 +6719,7 @@
       </c>
       <c r="BV33" s="41"/>
       <c r="BW33" s="41"/>
-      <c r="BX33" s="48" t="str">
+      <c r="BX33" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -6835,10 +6860,10 @@
         <v>89</v>
       </c>
       <c r="BQ34" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR34" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS34" s="41"/>
       <c r="BT34" s="41" t="s">
@@ -6850,7 +6875,7 @@
       </c>
       <c r="BV34" s="41"/>
       <c r="BW34" s="41"/>
-      <c r="BX34" s="48" t="str">
+      <c r="BX34" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -6991,10 +7016,10 @@
         <v>89</v>
       </c>
       <c r="BQ35" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR35" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS35" s="41"/>
       <c r="BT35" s="41" t="s">
@@ -7006,7 +7031,7 @@
       </c>
       <c r="BV35" s="41"/>
       <c r="BW35" s="41"/>
-      <c r="BX35" s="48" t="str">
+      <c r="BX35" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -7147,10 +7172,10 @@
         <v>89</v>
       </c>
       <c r="BQ36" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR36" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS36" s="41"/>
       <c r="BT36" s="41" t="s">
@@ -7162,7 +7187,7 @@
       </c>
       <c r="BV36" s="41"/>
       <c r="BW36" s="41"/>
-      <c r="BX36" s="48" t="str">
+      <c r="BX36" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -7303,10 +7328,10 @@
         <v>89</v>
       </c>
       <c r="BQ37" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR37" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS37" s="41"/>
       <c r="BT37" s="41" t="s">
@@ -7318,7 +7343,7 @@
       </c>
       <c r="BV37" s="41"/>
       <c r="BW37" s="41"/>
-      <c r="BX37" s="48" t="str">
+      <c r="BX37" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -7458,10 +7483,10 @@
         <v>89</v>
       </c>
       <c r="BQ38" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR38" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS38" s="41"/>
       <c r="BT38" s="41" t="s">
@@ -7473,7 +7498,7 @@
       </c>
       <c r="BV38" s="41"/>
       <c r="BW38" s="41"/>
-      <c r="BX38" s="48" t="str">
+      <c r="BX38" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -7613,10 +7638,10 @@
         <v>89</v>
       </c>
       <c r="BQ39" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR39" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS39" s="41"/>
       <c r="BT39" s="41" t="s">
@@ -7628,7 +7653,7 @@
       </c>
       <c r="BV39" s="41"/>
       <c r="BW39" s="41"/>
-      <c r="BX39" s="48" t="str">
+      <c r="BX39" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -7769,10 +7794,10 @@
         <v>89</v>
       </c>
       <c r="BQ40" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR40" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS40" s="41"/>
       <c r="BT40" s="41" t="s">
@@ -7784,7 +7809,7 @@
       </c>
       <c r="BV40" s="41"/>
       <c r="BW40" s="41"/>
-      <c r="BX40" s="48" t="str">
+      <c r="BX40" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -7924,10 +7949,10 @@
         <v>89</v>
       </c>
       <c r="BQ41" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR41" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS41" s="41"/>
       <c r="BT41" s="41" t="s">
@@ -7939,7 +7964,7 @@
       </c>
       <c r="BV41" s="41"/>
       <c r="BW41" s="41"/>
-      <c r="BX41" s="48" t="str">
+      <c r="BX41" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -8079,10 +8104,10 @@
         <v>89</v>
       </c>
       <c r="BQ42" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR42" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS42" s="41"/>
       <c r="BT42" s="41" t="s">
@@ -8094,7 +8119,7 @@
       </c>
       <c r="BV42" s="41"/>
       <c r="BW42" s="41"/>
-      <c r="BX42" s="48" t="str">
+      <c r="BX42" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -8233,10 +8258,10 @@
         <v>89</v>
       </c>
       <c r="BQ43" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR43" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS43" s="41"/>
       <c r="BT43" s="41" t="s">
@@ -8248,7 +8273,7 @@
       </c>
       <c r="BV43" s="41"/>
       <c r="BW43" s="41"/>
-      <c r="BX43" s="48" t="str">
+      <c r="BX43" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -8387,10 +8412,10 @@
         <v>89</v>
       </c>
       <c r="BQ44" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR44" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS44" s="41"/>
       <c r="BT44" s="41" t="s">
@@ -8402,7 +8427,7 @@
       </c>
       <c r="BV44" s="41"/>
       <c r="BW44" s="41"/>
-      <c r="BX44" s="48" t="str">
+      <c r="BX44" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -8541,10 +8566,10 @@
         <v>89</v>
       </c>
       <c r="BQ45" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR45" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS45" s="41"/>
       <c r="BT45" s="41" t="s">
@@ -8556,7 +8581,7 @@
       </c>
       <c r="BV45" s="41"/>
       <c r="BW45" s="41"/>
-      <c r="BX45" s="48" t="str">
+      <c r="BX45" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -8695,10 +8720,10 @@
         <v>89</v>
       </c>
       <c r="BQ46" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR46" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS46" s="41"/>
       <c r="BT46" s="41" t="s">
@@ -8710,7 +8735,7 @@
       </c>
       <c r="BV46" s="41"/>
       <c r="BW46" s="41"/>
-      <c r="BX46" s="48" t="str">
+      <c r="BX46" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -8849,10 +8874,10 @@
         <v>89</v>
       </c>
       <c r="BQ47" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR47" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS47" s="41"/>
       <c r="BT47" s="41" t="s">
@@ -8864,7 +8889,7 @@
       </c>
       <c r="BV47" s="41"/>
       <c r="BW47" s="41"/>
-      <c r="BX47" s="48" t="str">
+      <c r="BX47" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -9003,10 +9028,10 @@
         <v>89</v>
       </c>
       <c r="BQ48" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR48" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS48" s="41"/>
       <c r="BT48" s="41" t="s">
@@ -9018,7 +9043,7 @@
       </c>
       <c r="BV48" s="41"/>
       <c r="BW48" s="41"/>
-      <c r="BX48" s="48" t="str">
+      <c r="BX48" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -9157,10 +9182,10 @@
         <v>89</v>
       </c>
       <c r="BQ49" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR49" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS49" s="41"/>
       <c r="BT49" s="41" t="s">
@@ -9172,7 +9197,7 @@
       </c>
       <c r="BV49" s="41"/>
       <c r="BW49" s="41"/>
-      <c r="BX49" s="48" t="str">
+      <c r="BX49" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -9311,10 +9336,10 @@
         <v>89</v>
       </c>
       <c r="BQ50" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR50" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS50" s="41"/>
       <c r="BT50" s="41" t="s">
@@ -9326,7 +9351,7 @@
       </c>
       <c r="BV50" s="41"/>
       <c r="BW50" s="41"/>
-      <c r="BX50" s="48" t="str">
+      <c r="BX50" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -9465,10 +9490,10 @@
         <v>89</v>
       </c>
       <c r="BQ51" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR51" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS51" s="41"/>
       <c r="BT51" s="41" t="s">
@@ -9480,7 +9505,7 @@
       </c>
       <c r="BV51" s="41"/>
       <c r="BW51" s="41"/>
-      <c r="BX51" s="48" t="str">
+      <c r="BX51" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -9619,10 +9644,10 @@
         <v>89</v>
       </c>
       <c r="BQ52" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR52" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS52" s="41"/>
       <c r="BT52" s="41" t="s">
@@ -9634,7 +9659,7 @@
       </c>
       <c r="BV52" s="41"/>
       <c r="BW52" s="41"/>
-      <c r="BX52" s="48" t="str">
+      <c r="BX52" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -9773,10 +9798,10 @@
         <v>89</v>
       </c>
       <c r="BQ53" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR53" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS53" s="41"/>
       <c r="BT53" s="41" t="s">
@@ -9788,7 +9813,7 @@
       </c>
       <c r="BV53" s="41"/>
       <c r="BW53" s="41"/>
-      <c r="BX53" s="48" t="str">
+      <c r="BX53" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -9927,10 +9952,10 @@
         <v>89</v>
       </c>
       <c r="BQ54" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR54" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS54" s="41"/>
       <c r="BT54" s="41" t="s">
@@ -9942,7 +9967,7 @@
       </c>
       <c r="BV54" s="41"/>
       <c r="BW54" s="41"/>
-      <c r="BX54" s="48" t="str">
+      <c r="BX54" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -10081,10 +10106,10 @@
         <v>89</v>
       </c>
       <c r="BQ55" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR55" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS55" s="41"/>
       <c r="BT55" s="41" t="s">
@@ -10096,7 +10121,7 @@
       </c>
       <c r="BV55" s="41"/>
       <c r="BW55" s="41"/>
-      <c r="BX55" s="48" t="str">
+      <c r="BX55" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -10235,10 +10260,10 @@
         <v>89</v>
       </c>
       <c r="BQ56" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR56" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS56" s="41"/>
       <c r="BT56" s="41" t="s">
@@ -10250,7 +10275,7 @@
       </c>
       <c r="BV56" s="41"/>
       <c r="BW56" s="41"/>
-      <c r="BX56" s="48" t="str">
+      <c r="BX56" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -10389,10 +10414,10 @@
         <v>89</v>
       </c>
       <c r="BQ57" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR57" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS57" s="41"/>
       <c r="BT57" s="41" t="s">
@@ -10404,7 +10429,7 @@
       </c>
       <c r="BV57" s="41"/>
       <c r="BW57" s="41"/>
-      <c r="BX57" s="48" t="str">
+      <c r="BX57" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -10543,10 +10568,10 @@
         <v>89</v>
       </c>
       <c r="BQ58" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR58" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS58" s="41"/>
       <c r="BT58" s="41" t="s">
@@ -10558,7 +10583,7 @@
       </c>
       <c r="BV58" s="41"/>
       <c r="BW58" s="41"/>
-      <c r="BX58" s="48" t="str">
+      <c r="BX58" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -10697,10 +10722,10 @@
         <v>89</v>
       </c>
       <c r="BQ59" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR59" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS59" s="41"/>
       <c r="BT59" s="41" t="s">
@@ -10712,7 +10737,7 @@
       </c>
       <c r="BV59" s="41"/>
       <c r="BW59" s="41"/>
-      <c r="BX59" s="48" t="str">
+      <c r="BX59" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -10851,10 +10876,10 @@
         <v>89</v>
       </c>
       <c r="BQ60" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR60" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS60" s="41"/>
       <c r="BT60" s="41" t="s">
@@ -10866,7 +10891,7 @@
       </c>
       <c r="BV60" s="41"/>
       <c r="BW60" s="41"/>
-      <c r="BX60" s="48" t="str">
+      <c r="BX60" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -11003,10 +11028,10 @@
         <v>89</v>
       </c>
       <c r="BQ61" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR61" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS61" s="41"/>
       <c r="BT61" s="41" t="s">
@@ -11018,7 +11043,7 @@
       </c>
       <c r="BV61" s="41"/>
       <c r="BW61" s="41"/>
-      <c r="BX61" s="48" t="str">
+      <c r="BX61" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -11155,10 +11180,10 @@
         <v>89</v>
       </c>
       <c r="BQ62" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR62" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS62" s="41"/>
       <c r="BT62" s="41" t="s">
@@ -11170,7 +11195,7 @@
       </c>
       <c r="BV62" s="41"/>
       <c r="BW62" s="41"/>
-      <c r="BX62" s="48" t="str">
+      <c r="BX62" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -11307,10 +11332,10 @@
         <v>89</v>
       </c>
       <c r="BQ63" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR63" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS63" s="41"/>
       <c r="BT63" s="41" t="s">
@@ -11322,7 +11347,7 @@
       </c>
       <c r="BV63" s="41"/>
       <c r="BW63" s="41"/>
-      <c r="BX63" s="48" t="str">
+      <c r="BX63" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -11459,10 +11484,10 @@
         <v>89</v>
       </c>
       <c r="BQ64" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR64" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS64" s="41"/>
       <c r="BT64" s="41" t="s">
@@ -11474,7 +11499,7 @@
       </c>
       <c r="BV64" s="41"/>
       <c r="BW64" s="41"/>
-      <c r="BX64" s="48" t="str">
+      <c r="BX64" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -11611,10 +11636,10 @@
         <v>89</v>
       </c>
       <c r="BQ65" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR65" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS65" s="41"/>
       <c r="BT65" s="41" t="s">
@@ -11626,7 +11651,7 @@
       </c>
       <c r="BV65" s="41"/>
       <c r="BW65" s="41"/>
-      <c r="BX65" s="48" t="str">
+      <c r="BX65" s="57" t="str">
         <f t="shared" si="1"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -11763,10 +11788,10 @@
         <v>89</v>
       </c>
       <c r="BQ66" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR66" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS66" s="41"/>
       <c r="BT66" s="41" t="s">
@@ -11778,7 +11803,7 @@
       </c>
       <c r="BV66" s="41"/>
       <c r="BW66" s="41"/>
-      <c r="BX66" s="48" t="str">
+      <c r="BX66" s="57" t="str">
         <f t="shared" ref="BX66:BX71" si="12">IF(ISNONTEXT(A72),"EMPECEMOS A ENVIAR",IF(ISTEXT(A72),IF(ISBLANK(B72),"FAVOR ESCRIBIR APELLIDO",IF(ISBLANK(C72),"FAVOR ESCRIBIR DIRECCION",IF(ISBLANK(D72),"FAVOR INTRODUCIR NUMERO DE TELEFONO",IF(ISBLANK(E72),"FAVOR SELECCIONAR COMUNA",IF(ISBLANK(F72),"FAVOR SELECCIONAR TIPO DE PAGO",IF(ISBLANK(G72),"FAVOR SELECCIONAR TIPO DE ENCOMIENDA","OK"))))))))</f>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -11900,10 +11925,10 @@
         <v>89</v>
       </c>
       <c r="BQ67" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR67" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS67" s="41"/>
       <c r="BT67" s="41" t="s">
@@ -11915,7 +11940,7 @@
       </c>
       <c r="BV67" s="41"/>
       <c r="BW67" s="41"/>
-      <c r="BX67" s="48" t="str">
+      <c r="BX67" s="57" t="str">
         <f t="shared" si="12"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -12037,10 +12062,10 @@
         <v>89</v>
       </c>
       <c r="BQ68" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR68" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS68" s="41"/>
       <c r="BT68" s="41" t="s">
@@ -12052,7 +12077,7 @@
       </c>
       <c r="BV68" s="41"/>
       <c r="BW68" s="41"/>
-      <c r="BX68" s="48" t="str">
+      <c r="BX68" s="57" t="str">
         <f t="shared" si="12"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -12174,10 +12199,10 @@
         <v>89</v>
       </c>
       <c r="BQ69" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR69" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS69" s="41"/>
       <c r="BT69" s="41" t="s">
@@ -12189,7 +12214,7 @@
       </c>
       <c r="BV69" s="41"/>
       <c r="BW69" s="41"/>
-      <c r="BX69" s="48" t="str">
+      <c r="BX69" s="57" t="str">
         <f t="shared" si="12"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
@@ -12311,10 +12336,10 @@
         <v>89</v>
       </c>
       <c r="BQ70" s="41" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="BR70" s="41" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="BS70" s="41"/>
       <c r="BT70" s="41" t="s">
@@ -12326,35 +12351,133 @@
       </c>
       <c r="BV70" s="41"/>
       <c r="BW70" s="41"/>
-      <c r="BX70" s="48" t="str">
+      <c r="BX70" s="57" t="str">
         <f t="shared" si="12"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
     </row>
     <row r="71" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I71" s="4"/>
-      <c r="BX71" s="48" t="str">
+      <c r="BP71" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ71" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="BR71" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="BS71" s="11"/>
+      <c r="BT71" s="11"/>
+      <c r="BU71" s="11"/>
+      <c r="BV71" s="11"/>
+      <c r="BW71" s="11"/>
+      <c r="BX71" s="57" t="str">
         <f t="shared" si="12"/>
         <v>EMPECEMOS A ENVIAR</v>
       </c>
     </row>
     <row r="72" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I72" s="4"/>
+      <c r="BP72" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ72" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="BR72" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="BS72" s="11"/>
+      <c r="BT72" s="11"/>
+      <c r="BU72" s="11"/>
+      <c r="BV72" s="11"/>
+      <c r="BW72" s="11"/>
+      <c r="BX72" s="11"/>
     </row>
     <row r="73" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I73" s="4"/>
+      <c r="BP73" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ73" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="BR73" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="BS73" s="11"/>
+      <c r="BT73" s="11"/>
+      <c r="BU73" s="11"/>
+      <c r="BV73" s="11"/>
+      <c r="BW73" s="11"/>
+      <c r="BX73" s="11"/>
     </row>
     <row r="74" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I74" s="4"/>
+      <c r="BP74" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ74" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="BR74" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="BS74" s="11"/>
+      <c r="BT74" s="11"/>
+      <c r="BU74" s="11"/>
+      <c r="BV74" s="11"/>
+      <c r="BW74" s="11"/>
+      <c r="BX74" s="11"/>
     </row>
     <row r="75" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I75" s="4"/>
+      <c r="BP75" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ75" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="BR75" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="BS75" s="11"/>
+      <c r="BT75" s="11"/>
+      <c r="BU75" s="11"/>
+      <c r="BV75" s="11"/>
+      <c r="BW75" s="11"/>
+      <c r="BX75" s="11"/>
     </row>
     <row r="76" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I76" s="4"/>
+      <c r="BP76" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="BQ76" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="BR76" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="BS76" s="11"/>
+      <c r="BT76" s="11"/>
+      <c r="BU76" s="11"/>
+      <c r="BV76" s="11"/>
+      <c r="BW76" s="11"/>
+      <c r="BX76" s="11"/>
     </row>
     <row r="77" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I77" s="4"/>
+      <c r="BP77" s="11"/>
+      <c r="BQ77" s="11"/>
+      <c r="BR77" s="11"/>
+      <c r="BS77" s="11"/>
+      <c r="BT77" s="11"/>
+      <c r="BU77" s="11"/>
+      <c r="BV77" s="11"/>
+      <c r="BW77" s="11"/>
+      <c r="BX77" s="11"/>
     </row>
     <row r="78" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I78" s="4"/>
@@ -12426,49 +12549,48 @@
       <formula>NOT(ISERROR(SEARCH("EMPECEMOS A ENVIAR",J7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations xWindow="418" yWindow="238" count="8">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="TEXCARGO.CL" error="Debe Introducir el Texto en Mayusculas" sqref="A7:C66">
+  <dataValidations xWindow="823" yWindow="376" count="7">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="TEXCARGO.CL" error="Debe Introducir el Texto en Mayusculas" sqref="A7:C66" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>EXACT(A7,UPPER(A7))</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Numero telefono incorrecto" error="Numero de telefono debe incluir 9 digitos y No colocar +56" sqref="D7:D66">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Numero telefono incorrecto" error="Numero de telefono debe incluir 9 digitos y No colocar +56" sqref="D7:D66" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>9</formula1>
       <formula2>9</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Si tiene un numero de Boleta, Factura o control interno lo puedes ingresar aca " sqref="I7"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Una ves terminada la planilla de enviarla al correo indicado" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="El correo debe incluir toda la informacion de retiro y de tu tienda" sqref="J1 H1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Sin el comprobante Anexo tus envios saldran Por Pagar" sqref="H2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Te notificara de algun Campo faltante, para complentar la planilla, de lo contrario todo estara bien" sqref="J6"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Te notificara de algun Campo faltante, para complentar la planilla, de lo contrario todo estara bien" sqref="BX1:BX71"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Si tiene un numero de Boleta, Factura o control interno lo puedes ingresar aca " sqref="I7" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Una ves terminada la planilla de enviarla al correo indicado" sqref="B1" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="El correo debe incluir toda la informacion de retiro y de tu tienda" sqref="J1 H1" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Sin el comprobante Anexo tus envios saldran Por Pagar" sqref="H2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Te notificara de algun Campo faltante, para complentar la planilla, de lo contrario todo estara bien" sqref="J6 BX1:BX71" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="3" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="418" yWindow="238" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Selecciona comuna - Selecciona una comuna de la lista">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="823" yWindow="376" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Selecciona comuna - Selecciona una comuna de la lista" xr:uid="{00000000-0002-0000-0000-000008000000}">
           <x14:formula1>
             <xm:f>Comunas!$A$2:$A$68</xm:f>
           </x14:formula1>
           <xm:sqref>E7:E66</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Selecciona el tipo de encomienda a enviar">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Selecciona el tipo de encomienda a enviar" xr:uid="{00000000-0002-0000-0000-000009000000}">
           <x14:formula1>
             <xm:f>Comunas!$D$2:$D$5</xm:f>
           </x14:formula1>
           <xm:sqref>G7:G66</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Favor selecciona Comuna destino">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Favor selecciona Comuna destino" xr:uid="{00000000-0002-0000-0000-00000A000000}">
           <x14:formula1>
             <xm:f>Comunas!$B$2:$B$4</xm:f>
           </x14:formula1>
           <xm:sqref>F7:F66</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000B000000}">
           <x14:formula1>
             <xm:f>Comunas!$F$1:$F$8</xm:f>
           </x14:formula1>
@@ -12481,7 +12603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12545,11 +12667,11 @@
       <c r="J2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="55">
+      <c r="K2" s="54">
         <f>IF(I2=D3,"3000",IF(I2=D4,"4600",IF(I2=D5,"PREVIA COTIZACION;""")))+L2</f>
         <v>1000</v>
       </c>
-      <c r="L2" s="55" t="str">
+      <c r="L2" s="54" t="str">
         <f>IF(J2=E2,"1000",IF(J2=E3,"1000","0"))</f>
         <v>1000</v>
       </c>
@@ -12560,7 +12682,7 @@
         <v>67</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>89</v>
@@ -12586,7 +12708,7 @@
         <v>77</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>64</v>
@@ -12606,7 +12728,7 @@
         <v>51</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>62</v>
@@ -12952,7 +13074,7 @@
     </row>
     <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13161,10 +13283,10 @@
     <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$A$3:$A$68</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$D$3:$D$5</formula1>
     </dataValidation>
   </dataValidations>

--- a/EnvioTexCargoPlanillav1.xlsx
+++ b/EnvioTexCargoPlanillav1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Miguel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\tuenvioexpressweb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEA673B-A7A5-45DB-9F57-F8FCA7B1064C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAAB1E0-C176-4730-9681-678BD5CEBB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanilladeCargaTexcargo" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2531" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="111">
   <si>
     <t>PLANILLA DE CARGA</t>
   </si>
@@ -362,10 +362,13 @@
     <t>MaxiTicket de 8 kg Hasta 25 Kg</t>
   </si>
   <si>
-    <t>NOMBRE DE QUIEN RECIBE</t>
+    <t>CALLE 123 DPTO O CASA 22</t>
   </si>
   <si>
-    <t>CALLE 123 DPTO O CASA 22</t>
+    <t>MIGUEL</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
   </si>
 </sst>
 </file>
@@ -1351,10 +1354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BZ86"/>
+  <dimension ref="A1:BX86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1550,16 +1553,16 @@
       </c>
       <c r="BU1" s="41">
         <f>IF(F7=BT1,SUM(H7),"")</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="BV1" s="41">
         <f>SUM(BU1:BU60)</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="BW1" s="41"/>
       <c r="BX1" s="57" t="str">
         <f>IF(ISNONTEXT(A7),"EMPECEMOS A ENVIAR",IF(ISTEXT(A7),IF(ISBLANK(B7),"FAVOR ESCRIBIR APELLIDO",IF(ISBLANK(C7),"FAVOR ESCRIBIR DIRECCION",IF(ISBLANK(D7),"FAVOR INTRODUCIR NUMERO DE TELEFONO",IF(ISBLANK(E7),"FAVOR SELECCIONAR COMUNA",IF(ISBLANK(F7),"FAVOR SELECCIONAR TIPO DE PAGO",IF(ISBLANK(G7),"FAVOR SELECCIONAR TIPO DE ENCOMIENDA","OK"))))))))</f>
-        <v>FAVOR SELECCIONAR COMUNA</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="2" spans="1:76" x14ac:dyDescent="0.25">
@@ -1741,7 +1744,7 @@
       </c>
       <c r="I3" s="37">
         <f>BV1</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="J3" s="28" t="s">
         <v>92</v>
@@ -1769,11 +1772,11 @@
       </c>
       <c r="AI3" s="41">
         <f>IF(ISERROR(AJ3),"PREVIA COTIZACION",IF(AJ3=AH1,"0",IF(AJ3=AF1,"0",SUM(AJ3))))</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="AJ3" s="41">
         <f>IF(G7=BP1,SUM(AE1),IF(G7=BQ1,SUM(AG1),IF(G7=BR1,"E",IF(ISBLANK(G7),"0",IF(ISBLANK(E7),"0","3000")))))+IF(E7=AK1,SUM(AH1),IF(E7=AL1,SUM(AH1),IF(E7=AM1,SUM(AH1),IF(E7=AN1,SUM(AH1),IF(E7=AO1,SUM(AH1),IF(E7=AP1,SUM(AH1),IF(E7=AQ1,SUM(AH1),IF(E7=AR1,SUM(AH1),IF(E7=AS1,SUM(AH1),IF(E7=AT1,SUM(AH1),IF(E7=AU1,SUM(AH1),IF(E7=AV1,SUM(AH1),IF(E7=AW1,SUM(AH1),IF(E7=AX1,SUM(AH1),IF(E7=AY1,SUM(AH1),IF(E7=AZ1,SUM(AH1),IF(E7=BA1,SUM(AH1),IF(E7=BB1,SUM(AH1),IF(E7=BC1,SUM(AH1),IF(E7=BD1,SUM(AH1),IF(E7=BD1,SUM(AH1),IF(E7=BE1,SUM(AH1),IF(E7=BF1,SUM(AH1),IF(E7=BG1,SUM(AH1),IF(E7=BH1,SUM(AF1),IF(E7=BI1,SUM(AF1),IF(E7=BJ1,SUM(AF1),IF(E7=BK1,SUM(AF1),IF(E7=BL1,SUM(AF1),IF(E7=BM1,SUM(AF1),IF(E7=BN1,SUM(AF1))))))))))))))))))))))))))))))))</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="AK3" s="41" t="s">
         <v>65</v>
@@ -2387,30 +2390,36 @@
     </row>
     <row r="7" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>108</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>109</v>
       </c>
       <c r="D7" s="13">
         <v>123456789</v>
       </c>
-      <c r="E7" s="55"/>
+      <c r="E7" s="55" t="s">
+        <v>15</v>
+      </c>
       <c r="F7" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="G7" s="19"/>
+      <c r="G7" s="19" t="s">
+        <v>89</v>
+      </c>
       <c r="H7" s="45">
         <f>AI3</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="6"/>
+        <v>3000</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1234</v>
+      </c>
       <c r="J7" s="16" t="str">
         <f>BX1</f>
-        <v>FAVOR SELECCIONAR COMUNA</v>
+        <v>OK</v>
       </c>
       <c r="K7" s="10"/>
       <c r="V7" s="11"/>
